--- a/需求分析/接口文档/通用申请接口.xlsx
+++ b/需求分析/接口文档/通用申请接口.xlsx
@@ -4,19 +4,66 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23175" windowHeight="9840"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="更新说明" sheetId="2" r:id="rId1"/>
+    <sheet name="通用申请" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+  <si>
+    <t>接口标签</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>我的好友</t>
+  </si>
+  <si>
+    <t>发送添加好友请求</t>
+  </si>
+  <si>
+    <t>废弃此接口</t>
+  </si>
+  <si>
+    <t>已废弃</t>
+  </si>
+  <si>
+    <t>获取所有好友请求</t>
+  </si>
+  <si>
+    <t>新添加接口</t>
+  </si>
+  <si>
+    <t>已验证</t>
+  </si>
+  <si>
+    <t>获取未收到的好友请求</t>
+  </si>
+  <si>
+    <t>根据Id获取好友请求</t>
+  </si>
+  <si>
+    <t>同意好友请求</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
   <si>
     <t>获取部门列表</t>
   </si>
@@ -288,9 +335,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -329,8 +376,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,11 +407,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,22 +440,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,22 +477,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -437,29 +486,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,13 +545,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FF8064A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8064A2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,19 +647,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,79 +683,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,25 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,32 +718,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +771,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -732,42 +790,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,137 +832,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,19 +987,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="21" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="40" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="40" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="19" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="6" borderId="0" xfId="21" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="40" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,10 +1356,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" spans="1:5">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13">
+        <v>42947</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13"/>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1326,7 +1494,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1362,25 +1530,25 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1389,29 +1557,29 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1423,20 +1591,20 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1448,16 +1616,16 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1476,11 +1644,11 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1497,18 +1665,18 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1544,25 +1712,25 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1571,29 +1739,29 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -1605,20 +1773,20 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -1630,16 +1798,16 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1653,20 +1821,20 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="3" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1683,11 +1851,11 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -1704,18 +1872,18 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1751,25 +1919,25 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -1778,29 +1946,29 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -1812,20 +1980,20 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -1837,11 +2005,11 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -1858,11 +2026,11 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -1879,11 +2047,11 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -1900,11 +2068,11 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -1921,11 +2089,11 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -1942,7 +2110,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -1961,11 +2129,11 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -1982,11 +2150,11 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -2003,11 +2171,11 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="6" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -2024,7 +2192,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="7" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
@@ -2043,11 +2211,11 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="7" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -2059,7 +2227,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2076,7 +2244,7 @@
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
@@ -2103,32 +2271,32 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="Q72" s="10"/>
       <c r="R72" s="11">
@@ -2137,34 +2305,34 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Q73" s="10"/>
       <c r="R73" s="11">
@@ -2178,25 +2346,25 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="10" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="Q74" s="10"/>
       <c r="R74" s="11">
@@ -2210,23 +2378,23 @@
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
@@ -2238,20 +2406,20 @@
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -2266,25 +2434,25 @@
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="10" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="Q77" s="10"/>
       <c r="R77" s="11">
@@ -2303,16 +2471,16 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="10" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Q78" s="10"/>
       <c r="R78" s="11">
@@ -2331,16 +2499,16 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="10" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Q79" s="10"/>
       <c r="R79" s="11">
@@ -2359,11 +2527,11 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -2383,11 +2551,11 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -2407,7 +2575,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -2429,11 +2597,11 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
@@ -2453,11 +2621,11 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -2477,14 +2645,14 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="O85" s="5"/>
     </row>
@@ -2500,14 +2668,14 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="O86" s="5"/>
     </row>
@@ -2523,7 +2691,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -2542,18 +2710,18 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="L88" s="7"/>
       <c r="M88" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="N88" s="7"/>
       <c r="O88" s="7"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2589,25 +2757,25 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -2616,29 +2784,29 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L107" s="3"/>
       <c r="M107" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -2650,20 +2818,20 @@
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L108" s="3"/>
       <c r="M108" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -2675,16 +2843,16 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -2698,20 +2866,20 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="L110" s="3"/>
       <c r="M110" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -2723,20 +2891,20 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="8" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="L111" s="3"/>
       <c r="M111" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -2753,11 +2921,11 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="3" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="L112" s="3"/>
       <c r="M112" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -2774,11 +2942,11 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
@@ -2795,11 +2963,11 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="L114" s="3"/>
       <c r="M114" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -2816,11 +2984,11 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -2837,11 +3005,11 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="L116" s="3"/>
       <c r="M116" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -2858,7 +3026,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="5" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
@@ -2877,11 +3045,11 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="L118" s="5"/>
       <c r="M118" s="5" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
@@ -2898,11 +3066,11 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="5" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
@@ -2919,11 +3087,11 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="5" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
@@ -2940,11 +3108,11 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="5" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
@@ -2961,7 +3129,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -2980,18 +3148,18 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="L123" s="7"/>
       <c r="M123" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="N123" s="7"/>
       <c r="O123" s="7"/>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3027,25 +3195,25 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
@@ -3054,29 +3222,29 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L139" s="3"/>
       <c r="M139" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -3088,20 +3256,20 @@
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L140" s="3"/>
       <c r="M140" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
@@ -3113,11 +3281,11 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -3134,11 +3302,11 @@
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -3155,11 +3323,11 @@
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -3176,11 +3344,11 @@
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -3192,7 +3360,7 @@
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3228,25 +3396,25 @@
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
@@ -3255,29 +3423,29 @@
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L160" s="3"/>
       <c r="M160" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -3289,20 +3457,20 @@
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L161" s="3"/>
       <c r="M161" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -3314,11 +3482,11 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -3335,11 +3503,11 @@
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -3356,11 +3524,11 @@
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="3" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -3377,11 +3545,11 @@
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
@@ -3393,7 +3561,7 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -3429,25 +3597,25 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
@@ -3456,29 +3624,29 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="L181" s="3"/>
       <c r="M181" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
@@ -3490,20 +3658,20 @@
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L182" s="3"/>
       <c r="M182" s="3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
@@ -3515,23 +3683,23 @@
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
-      <c r="K183" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L183" s="12"/>
-      <c r="M183" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="N183" s="12"/>
-      <c r="O183" s="12"/>
+      <c r="K183" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="4"/>
@@ -3539,15 +3707,15 @@
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
-      <c r="F184" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
+      <c r="F184" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
@@ -3839,38 +4007,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>